--- a/Accounting/Create Batch/Main.rvl.xlsx
+++ b/Accounting/Create Batch/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="102">
   <si>
     <t>Flow</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>C:\UX 365 Regression Testing\JSON\Global.json</t>
+  </si>
+  <si>
+    <t>Begin Test</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,12 @@
       <c r="A8" s="184"/>
     </row>
     <row r="9">
-      <c r="A9" s="183"/>
+      <c r="A9" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="182" t="s">
